--- a/SampleScript/TestSuite/Test_Suite.xlsx
+++ b/SampleScript/TestSuite/Test_Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="225" windowWidth="19230" windowHeight="3915"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Run</t>
   </si>
@@ -25,16 +25,7 @@
     <t>r</t>
   </si>
   <si>
-    <t>IM_TestScript1_again.xlsx</t>
-  </si>
-  <si>
-    <t>TWC.xlsx</t>
-  </si>
-  <si>
     <t>DemoTest.xlsx</t>
-  </si>
-  <si>
-    <t>TC004.xlsx</t>
   </si>
 </sst>
 </file>
@@ -435,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -456,27 +447,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
